--- a/Assets/Editor/Config/LevelConfig.xlsx
+++ b/Assets/Editor/Config/LevelConfig.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -33,7 +33,43 @@
     <t>Legion</t>
   </si>
   <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>Vector3</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>(-9.0, 0.0, -4.4)</t>
+  </si>
+  <si>
+    <t>0,3,2</t>
+  </si>
+  <si>
+    <t>(-5.9, 0.0, 3.9)</t>
+  </si>
+  <si>
+    <t>0,3,1</t>
+  </si>
+  <si>
+    <t>(-0.1, 0.0, -9.6)</t>
+  </si>
+  <si>
+    <t>1,2,0</t>
+  </si>
+  <si>
+    <t>(3.2, 0.0, -1.2)</t>
   </si>
 </sst>
 </file>
@@ -56,35 +92,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -99,60 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -169,6 +190,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -176,16 +213,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,7 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,19 +244,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,54 +334,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,91 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +435,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,15 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +518,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -490,167 +535,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="49">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,64 +1035,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>10000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="B5" s="0">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="0">
         <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1067,9 +1185,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,9 +1201,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
